--- a/_site/Data/Archive/ChildcareEC.xlsx
+++ b/_site/Data/Archive/ChildcareEC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/Archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B24E1B3-B3D1-FC47-8C5E-8D89EC444DC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AF8FDE-B21C-6A4C-B994-7D542CF71F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34780" yWindow="1980" windowWidth="27240" windowHeight="15420" xr2:uid="{FF3255CD-A3E7-FB48-8276-17592E6151B3}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="28800" windowHeight="16400" xr2:uid="{FF3255CD-A3E7-FB48-8276-17592E6151B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -363,6 +363,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704CDA07-7377-9E4B-A04C-D3A6EB9B7593}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,7 +716,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -730,7 +733,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -771,7 +774,7 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="356" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -786,7 +789,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="289" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -857,7 +860,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
